--- a/pred_ohlcv/54_21/2020-01-15 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>10303890.8966</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>11964434.7766</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8238639.0781</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8357064.5933</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8351841.740159162</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8353088.850059162</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8381431.781959162</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5247572.881059162</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8596478.761059161</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>6745815.881059161</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>12223284.64105916</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9585622.761059161</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12790810.52105916</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>8927491.14105916</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>8669220.14105916</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>8420259.41295916</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>8338446.20695916</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>8364668.77355916</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>8300116.37215916</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8049783.93035916</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8297951.130559159</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8123397.680059159</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>7666385.788859159</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5580308.989659159</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5430004.785759158</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5430004.785759158</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1349266.162659157</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1354004.424559157</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1353560.425559157</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1351037.741359157</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5695800.580240843</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-10906883.22474084</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-10879839.22474084</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-10840972.34474084</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-10843407.06434084</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-14288942.88454084</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-13055930.77514084</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-13434121.37834084</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-13716941.20054084</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-8950569.745140839</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8171876.944740839</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-12491609.57284084</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>10303890.8966</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>11964434.7766</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8538639.0781</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8238639.0781</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8257064.5933</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8357064.5933</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8351841.740159162</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8353088.850059162</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8381431.781959162</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5247572.881059162</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8596478.761059161</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>6745815.881059161</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8911993.761059161</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>12223284.64105916</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9585622.761059161</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12790810.52105916</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>12485495.02105916</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>8927491.14105916</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5636762.26105916</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>8669220.14105916</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>8671580.14105916</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>8420259.41295916</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>8300116.37215916</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8049783.93035916</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8297951.130559159</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8123397.680059159</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>7666385.788859159</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1349266.162659157</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1354004.424559157</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1353560.425559157</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1351037.741359157</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5695800.580240843</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-10906883.22474084</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-10879839.22474084</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-10840972.34474084</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-10843407.06434084</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-14288942.88454084</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-13055930.77514084</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-13434121.37834084</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-13716941.20054084</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-8508923.745140839</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-8950569.745140839</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8171876.944740839</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-12491609.57284084</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
